--- a/02.Hardware/MK2 2040/01.EDCPSU/BOM/EDCPSU_MK2_RP2040_BOM.xlsx
+++ b/02.Hardware/MK2 2040/01.EDCPSU/BOM/EDCPSU_MK2_RP2040_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Team Dropbox\JRODRIGUEZ\Repositorios\07.MK2\02.Hardware\MK2 2040\01.EDCPSU\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEDDF7D-32F5-4849-B9F6-7C587194E40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A0CCA1-15F0-48E3-B16B-BBD856635EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="266">
   <si>
     <t>Qty</t>
   </si>
@@ -455,18 +455,6 @@
     <t>PESD5V0U2BT - Ultra low capacitance bidirectional double ESD protection diode</t>
   </si>
   <si>
-    <t>3V3MCU, EN_TPS54531, GND, GND_IN, IN+, ISENSE, N$41, N$51, N$59, OVC_ALARM, PEDAL+, PEDAL-, RUN, SCL, SDA, SEL, SWCLK, SWDIO, USB-D+, USB-D-, VBUS_SENSE, VOSEN, VOUT</t>
-  </si>
-  <si>
-    <t>TESTPAD_TPSQB1,27</t>
-  </si>
-  <si>
-    <t>TESTPAD_B1,27</t>
-  </si>
-  <si>
-    <t>Test pad</t>
-  </si>
-  <si>
     <t>PKMCS0909</t>
   </si>
   <si>
@@ -509,30 +497,6 @@
     <t>Diode Zener 3.6V 5% 500mW 2Pin SOD123 Diodes Inc MMSZ5227B-7-F Zener Diode, 3.6V 5% 500 mW SMT 2-Pin SOD-123</t>
   </si>
   <si>
-    <t>FB_ADJ, USB_D+, USB_D-</t>
-  </si>
-  <si>
-    <t>JUMPER-SMT_2_NO_NO-SILK</t>
-  </si>
-  <si>
-    <t>SMT-JUMPER_2_NO_NO-SILK</t>
-  </si>
-  <si>
-    <t>Normally open jumper</t>
-  </si>
-  <si>
-    <t>FID1, FID2, FID3, FID4, FID5, FID6</t>
-  </si>
-  <si>
-    <t>FIDUCIAL1X2</t>
-  </si>
-  <si>
-    <t>FIDUCIAL-1X2</t>
-  </si>
-  <si>
-    <t>Fiducial Alignment Points</t>
-  </si>
-  <si>
     <t>USB-C (USB TYPE-C) USB 2.0 Receptacle Connector 24 (16+8 Dummy) Position Surface Mount, Right Angle; Through Hole</t>
   </si>
   <si>
@@ -795,6 +759,66 @@
   </si>
   <si>
     <t>Creacion</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/infineon-technologies/BAV199E6327HTSA1/506263?s=N4IgTCBcDaIEIEEBqBGAnGgkgOQMIBUBabAERAF0BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/rohm-semiconductor/RB060M-60TR/2615614?s=N4IgTCBcDaIEoCEAMA2JBZAtGgwgFUwDkAREAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/diodes-incorporated/MMSZ5227B-7-F/814389?s=N4IgTCBcDaILJwMoC0CsYwHYBCBaTuAYiALoC%2BQA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/jae-electronics/DX07S016JA1R1500/11585731?s=N4IgTCBcDaICIA0AMB2AykgjANgFIEFMAlTAViSRAF0BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/w%C3%BCrth-elektronik/74437368047/2791098?s=N4IgTCBcDaIOwGYwFoEIBwE5kEZkDkAREAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/tdk-corporation/MMZ2012Y202BT000/571868?s=N4IgTCBcDaILJwFpgAwEYwE1VgEIBUUiQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/liteon/LTV-816S-TA1/388448</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/nexperia-usa-inc/2N7002PW-115/2296328?s=N4IgTCBcDaIKwDYAcBaOBOJB2FBGFAcgCIgC6AvkA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/raspberry-pi/SC0914-13/14306010?s=N4IgTCBcDaIE4AcwAYAsyQF0C%2BQ</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/diodes-incorporated/AP63203WU-7/9858426</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/diodes-incorporated/AP64501SP-13/10419715?s=N4IgTCBcDaIIIAUBsAWArABgIwGUEFosBmEAXQF8g</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/texas-instruments/SN74AC14PWR/376031</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/analog-devices-inc-maxim-integrated/MAX9938TEUK-T/1937784?s=N4IgTCBcDaILIEEAaBOFBmAHAFQKIFUBpAamwGFsBaAOQBEQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/winbond-electronics/W25Q64JVSSIQ/5803992</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/texas-instruments/TPIC2810D/509926</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/diodes-incorporated/LM4040C25FTA/1557717?s=N4IgTCBcDaIDIFkAsAGVBhMBWAYgFQEEQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/analog-devices-inc-maxim-integrated/MAX9064EUK-T/1937852?s=N4IgTCBcDaILIEEAaBOADANgCwFECqA0gNQAqIAugL5A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/abracon-llc/ABM3C-12-000MHZ-D4Y-T/2639882?s=N4IgTCBcDaIIICECyBmAwgWgIxgHQAZCkAJALQwBEAWATQwBUQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/murata-electronics/PKMCS0909E4000-R1/4878400?s=N4IgTCBcDaIAoGkCyBhAygBgJzYKIBYMiBaAJQEYQBdAXyA</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1772,7 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,40 +1875,36 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2015,7 +2035,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="136">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2068,6 +2098,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2093,6 +2133,1206 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2492,794 +3732,864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="4" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="168.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="H1" s="4" t="s">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="I1" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="H2" s="5">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="I2" s="5">
         <v>45020</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="I6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="O6" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2</v>
+      </c>
+      <c r="E7" s="35">
         <v>1</v>
       </c>
-      <c r="D7" s="35">
-        <v>23</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="J7" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="52"/>
+      <c r="L7" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="23">
+        <v>3</v>
+      </c>
+      <c r="E8" s="35">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1210</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="23">
+        <v>4</v>
+      </c>
+      <c r="E9" s="35">
+        <v>2</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="35" t="s">
+      <c r="G9" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="35">
+        <v>805</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+    </row>
+    <row r="10" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="23">
+        <v>5</v>
+      </c>
+      <c r="E10" s="35">
+        <v>34</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="35">
+        <v>805</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="23">
+        <v>6</v>
+      </c>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I11" s="35">
+        <v>1206</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="23">
+        <v>7</v>
+      </c>
+      <c r="E12" s="35">
+        <v>2</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="H12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="35">
+        <v>805</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="53"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="23">
+        <v>8</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="35">
+        <v>805</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="53"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="23">
+        <v>9</v>
+      </c>
+      <c r="E14" s="35">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="35">
+        <v>805</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="53"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="23">
+        <v>10</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="35">
+        <v>805</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="53"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="23">
+        <v>11</v>
+      </c>
+      <c r="E16" s="35">
+        <v>4</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="35">
+        <v>1210</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="53"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="23">
+        <v>12</v>
+      </c>
+      <c r="E17" s="35">
+        <v>1</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="35">
+        <v>805</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="53"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="23">
+        <v>13</v>
+      </c>
+      <c r="E18" s="35">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="F18" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="35">
+        <v>805</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="53"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="23">
+        <v>14</v>
+      </c>
+      <c r="E19" s="35">
+        <v>2</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="35">
+        <v>805</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="53"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="23">
+        <v>15</v>
+      </c>
+      <c r="E20" s="35">
+        <v>8</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="35">
+        <v>805</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="53"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="23">
+        <v>16</v>
+      </c>
+      <c r="E21" s="35">
         <v>1</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="F21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="53"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="23">
+        <v>17</v>
+      </c>
+      <c r="E22" s="35">
         <v>3</v>
       </c>
-      <c r="D9" s="35">
-        <v>3</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="35">
-        <v>1210</v>
-      </c>
-      <c r="I9" s="35" t="s">
+      <c r="F22" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="53"/>
+      <c r="L22" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+    </row>
+    <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="23">
+        <v>18</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="53"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="23">
+        <v>19</v>
+      </c>
+      <c r="E24" s="35">
+        <v>1</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="53"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="23">
         <v>20</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="E25" s="35">
+        <v>1</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="23">
-        <v>4</v>
-      </c>
-      <c r="D10" s="35">
-        <v>2</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="35">
-        <v>805</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-    </row>
-    <row r="11" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="23">
-        <v>5</v>
-      </c>
-      <c r="D11" s="35">
-        <v>34</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="35">
-        <v>805</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="23">
-        <v>6</v>
-      </c>
-      <c r="D12" s="35">
-        <v>4</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="35" t="s">
+      <c r="D26" s="23">
+        <v>21</v>
+      </c>
+      <c r="E26" s="35">
+        <v>1</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="35">
-        <v>1206</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="23">
-        <v>7</v>
-      </c>
-      <c r="D13" s="35">
-        <v>2</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="35" t="s">
+      <c r="I26" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="35">
-        <v>805</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="23">
-        <v>8</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="J26" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="53"/>
+      <c r="L26" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+    </row>
+    <row r="27" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="23">
+        <v>22</v>
+      </c>
+      <c r="E27" s="35">
         <v>1</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="35">
-        <v>805</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="23">
-        <v>9</v>
-      </c>
-      <c r="D15" s="35">
-        <v>1</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="35">
-        <v>805</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="23">
-        <v>10</v>
-      </c>
-      <c r="D16" s="35">
-        <v>1</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="35">
-        <v>805</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="23">
-        <v>11</v>
-      </c>
-      <c r="D17" s="35">
-        <v>4</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="35">
-        <v>1210</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="23">
-        <v>12</v>
-      </c>
-      <c r="D18" s="35">
-        <v>1</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="35">
-        <v>805</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="23">
-        <v>13</v>
-      </c>
-      <c r="D19" s="35">
-        <v>2</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="35">
-        <v>805</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="23">
-        <v>14</v>
-      </c>
-      <c r="D20" s="35">
-        <v>2</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="35">
-        <v>805</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="23">
-        <v>15</v>
-      </c>
-      <c r="D21" s="35">
-        <v>8</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="35">
-        <v>805</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="55"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="23">
-        <v>16</v>
-      </c>
-      <c r="D22" s="35">
-        <v>1</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="55"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="23">
-        <v>17</v>
-      </c>
-      <c r="D23" s="35">
-        <v>3</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="23">
-        <v>18</v>
-      </c>
-      <c r="D24" s="35">
-        <v>1</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="23">
-        <v>19</v>
-      </c>
-      <c r="D25" s="35">
-        <v>1</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="35" t="s">
+      <c r="F27" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="35" t="s">
+      <c r="G27" s="35" t="s">
         <v>155</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="23">
-        <v>20</v>
-      </c>
-      <c r="D26" s="35">
-        <v>1</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="23">
-        <v>21</v>
-      </c>
-      <c r="D27" s="35">
-        <v>1</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>154</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>155</v>
@@ -3287,2004 +4597,2672 @@
       <c r="I27" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="J27" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="54"/>
+      <c r="L27" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+    </row>
+    <row r="28" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="23">
-        <v>22</v>
-      </c>
-      <c r="D28" s="35">
+      <c r="C28" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="23">
+        <v>25</v>
+      </c>
+      <c r="E28" s="35">
         <v>1</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="F28" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="K28" s="54"/>
+      <c r="L28" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="23">
+        <v>26</v>
+      </c>
+      <c r="E29" s="35">
+        <v>1</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="34"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+    </row>
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="23">
+        <v>27</v>
+      </c>
+      <c r="E30" s="35">
+        <v>1</v>
+      </c>
+      <c r="F30" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="35" t="s">
+      <c r="G30" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="H30" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J28" s="56"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="23">
-        <v>23</v>
-      </c>
-      <c r="D29" s="35">
-        <v>3</v>
-      </c>
-      <c r="E29" s="35" t="s">
+      <c r="K30" s="54"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+    </row>
+    <row r="31" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="23">
+        <v>28</v>
+      </c>
+      <c r="E31" s="35">
+        <v>1</v>
+      </c>
+      <c r="F31" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="G31" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="G29" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="35" t="s">
+      <c r="H31" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I31" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="23">
-        <v>24</v>
-      </c>
-      <c r="D30" s="35">
-        <v>6</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="56"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="23">
-        <v>25</v>
-      </c>
-      <c r="D31" s="35">
-        <v>1</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="K31" s="54"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+    </row>
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="23">
-        <v>26</v>
-      </c>
-      <c r="D32" s="35">
+      <c r="C32" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="23">
+        <v>29</v>
+      </c>
+      <c r="E32" s="35">
         <v>1</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>65</v>
-      </c>
       <c r="F32" s="35" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-    </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="54"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="51"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="23">
-        <v>27</v>
-      </c>
-      <c r="D33" s="35">
+      <c r="C33" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="23">
+        <v>30</v>
+      </c>
+      <c r="E33" s="35">
         <v>1</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="F33" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="34"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="51"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="23">
+        <v>31</v>
+      </c>
+      <c r="E34" s="35">
+        <v>5</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="35">
+        <v>805</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="54"/>
+      <c r="L34" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="51"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="23">
+        <v>32</v>
+      </c>
+      <c r="E35" s="35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K35" s="54"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="51"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="23">
+        <v>33</v>
+      </c>
+      <c r="E36" s="35">
+        <v>1</v>
+      </c>
+      <c r="F36" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="G36" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="H36" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="H33" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="I33" s="35" t="s">
+      <c r="I36" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="23">
-        <v>28</v>
-      </c>
-      <c r="D34" s="35">
+      <c r="J36" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="K36" s="56"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="23">
+        <v>34</v>
+      </c>
+      <c r="E37" s="35">
         <v>1</v>
       </c>
-      <c r="E34" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="F34" s="35" t="s">
+      <c r="F37" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="35" t="s">
+      <c r="J37" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="49"/>
+      <c r="L37" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="23">
+        <v>35</v>
+      </c>
+      <c r="E38" s="35">
+        <v>1</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="H34" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34" s="35" t="s">
+      <c r="H38" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="J34" s="56"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-    </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="23">
-        <v>29</v>
-      </c>
-      <c r="D35" s="35">
+      <c r="I38" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="K38" s="54"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="51"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="23">
+        <v>36</v>
+      </c>
+      <c r="E39" s="35">
+        <v>4</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K39" s="54"/>
+      <c r="L39" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="51"/>
+    </row>
+    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="23">
+        <v>37</v>
+      </c>
+      <c r="E40" s="35">
+        <v>8</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I40" s="35">
+        <v>805</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K40" s="54"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="51"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="23">
+        <v>38</v>
+      </c>
+      <c r="E41" s="35">
         <v>1</v>
       </c>
-      <c r="E35" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="J35" s="56"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="53"/>
-    </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="23">
+      <c r="F41" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I41" s="35">
+        <v>805</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K41" s="49"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="23">
+        <v>39</v>
+      </c>
+      <c r="E42" s="35">
+        <v>1</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="K42" s="49"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="51"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="23">
+        <v>40</v>
+      </c>
+      <c r="E43" s="35">
+        <v>5</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I43" s="35">
+        <v>805</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K43" s="49"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="51"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="23">
+        <v>41</v>
+      </c>
+      <c r="E44" s="35">
+        <v>7</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I44" s="35">
+        <v>805</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K44" s="54"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="51"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="23">
+        <v>42</v>
+      </c>
+      <c r="E45" s="35">
+        <v>8</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I45" s="35">
+        <v>805</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K45" s="49"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="51"/>
+    </row>
+    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="23">
+        <v>43</v>
+      </c>
+      <c r="E46" s="35">
+        <v>7</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="35">
+      <c r="H46" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I46" s="35">
+        <v>805</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K46" s="54"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="51"/>
+    </row>
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="23">
+        <v>44</v>
+      </c>
+      <c r="E47" s="35">
+        <v>6</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I47" s="35">
+        <v>805</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47" s="54"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="51"/>
+    </row>
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="23">
+        <v>45</v>
+      </c>
+      <c r="E48" s="35">
         <v>1</v>
       </c>
-      <c r="E36" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="H36" s="35" t="s">
+      <c r="F48" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I48" s="35">
+        <v>805</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48" s="49"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="51"/>
+    </row>
+    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="23">
         <v>46</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="53"/>
-    </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="23">
-        <v>31</v>
-      </c>
-      <c r="D37" s="35">
-        <v>5</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="35">
-        <v>805</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="53"/>
-    </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="23">
-        <v>32</v>
-      </c>
-      <c r="D38" s="35">
+      <c r="E49" s="35">
         <v>1</v>
       </c>
-      <c r="E38" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="J38" s="56"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="53"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="23">
-        <v>33</v>
-      </c>
-      <c r="D39" s="35">
-        <v>1</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="58"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="23">
-        <v>34</v>
-      </c>
-      <c r="D40" s="35">
-        <v>1</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" s="51"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-    </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="23">
-        <v>35</v>
-      </c>
-      <c r="D41" s="35">
-        <v>1</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="I41" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="J41" s="56"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="53"/>
-    </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="23">
-        <v>36</v>
-      </c>
-      <c r="D42" s="35">
-        <v>4</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="J42" s="56"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="53"/>
-    </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="23">
-        <v>37</v>
-      </c>
-      <c r="D43" s="35">
-        <v>8</v>
-      </c>
-      <c r="E43" s="35" t="s">
+      <c r="F49" s="35" t="s">
         <v>195</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H43" s="35">
-        <v>805</v>
-      </c>
-      <c r="I43" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J43" s="56"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="53"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="23">
-        <v>38</v>
-      </c>
-      <c r="D44" s="35">
-        <v>1</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" s="35">
-        <v>805</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J44" s="51"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-    </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="23">
-        <v>39</v>
-      </c>
-      <c r="D45" s="35">
-        <v>1</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="J45" s="51"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
-      <c r="N45" s="53"/>
-    </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="23">
-        <v>40</v>
-      </c>
-      <c r="D46" s="35">
-        <v>5</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H46" s="35">
-        <v>805</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J46" s="51"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="53"/>
-    </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="23">
-        <v>41</v>
-      </c>
-      <c r="D47" s="35">
-        <v>7</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H47" s="35">
-        <v>805</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J47" s="56"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="53"/>
-    </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="23">
-        <v>42</v>
-      </c>
-      <c r="D48" s="35">
-        <v>8</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H48" s="35">
-        <v>805</v>
-      </c>
-      <c r="I48" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J48" s="51"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="53"/>
-    </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="23">
-        <v>43</v>
-      </c>
-      <c r="D49" s="35">
-        <v>7</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>30</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="H49" s="35">
+      <c r="H49" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I49" s="35">
         <v>805</v>
       </c>
-      <c r="I49" s="35" t="s">
+      <c r="J49" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K49" s="54"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="51"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="23">
+        <v>47</v>
+      </c>
+      <c r="E50" s="35">
+        <v>2</v>
+      </c>
+      <c r="F50" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="J49" s="56"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="53"/>
-    </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="23">
-        <v>44</v>
-      </c>
-      <c r="D50" s="35">
-        <v>6</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="F50" s="35" t="s">
+      <c r="G50" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I50" s="35">
+        <v>805</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K50" s="54"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="23">
+        <v>48</v>
+      </c>
+      <c r="E51" s="35">
+        <v>1</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="35">
+        <v>805</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K51" s="49"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="23">
+        <v>49</v>
+      </c>
+      <c r="E52" s="35">
+        <v>1</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I52" s="35">
+        <v>805</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K52" s="49"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="23">
+        <v>50</v>
+      </c>
+      <c r="E53" s="35">
+        <v>2</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I53" s="35">
+        <v>805</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="23">
+        <v>51</v>
+      </c>
+      <c r="E54" s="35">
+        <v>1</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I54" s="35">
+        <v>805</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K54" s="59"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="23">
+        <v>52</v>
+      </c>
+      <c r="E55" s="35">
+        <v>2</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I55" s="35">
+        <v>805</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K55" s="59"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="23">
+        <v>53</v>
+      </c>
+      <c r="E56" s="35">
+        <v>1</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I56" s="35">
+        <v>805</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K56" s="59"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="23">
+        <v>54</v>
+      </c>
+      <c r="E57" s="35">
+        <v>1</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I57" s="35">
+        <v>805</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K57" s="61"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="23">
+        <v>55</v>
+      </c>
+      <c r="E58" s="35">
+        <v>1</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I58" s="35">
+        <v>805</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K58" s="61"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="23">
+        <v>56</v>
+      </c>
+      <c r="E59" s="35">
+        <v>2</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I59" s="35">
+        <v>805</v>
+      </c>
+      <c r="J59" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K59" s="61"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="23">
+        <v>57</v>
+      </c>
+      <c r="E60" s="35">
+        <v>1</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="G50" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H50" s="35">
+      <c r="H60" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I60" s="35">
         <v>805</v>
       </c>
-      <c r="I50" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J50" s="56"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="53"/>
-    </row>
-    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="23">
-        <v>45</v>
-      </c>
-      <c r="D51" s="35">
+      <c r="J60" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K60" s="61"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="23">
+        <v>58</v>
+      </c>
+      <c r="E61" s="35">
         <v>1</v>
       </c>
-      <c r="E51" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H51" s="35">
+      <c r="F61" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I61" s="35">
         <v>805</v>
       </c>
-      <c r="I51" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J51" s="51"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="53"/>
-    </row>
-    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="23">
-        <v>46</v>
-      </c>
-      <c r="D52" s="35">
+      <c r="J61" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K61" s="61"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="23">
+        <v>59</v>
+      </c>
+      <c r="E62" s="35">
         <v>1</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="F62" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I62" s="35">
+        <v>805</v>
+      </c>
+      <c r="J62" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K62" s="61"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="60"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="23">
+        <v>60</v>
+      </c>
+      <c r="E63" s="35">
+        <v>1</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I63" s="35">
+        <v>805</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K63" s="61"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="60"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="23">
+        <v>61</v>
+      </c>
+      <c r="E64" s="35">
+        <v>1</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I64" s="35">
+        <v>805</v>
+      </c>
+      <c r="J64" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K64" s="61"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="60"/>
+      <c r="O64" s="60"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="23">
+        <v>62</v>
+      </c>
+      <c r="E65" s="35">
+        <v>1</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I65" s="35">
+        <v>805</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K65" s="61"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="60"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="23">
+        <v>63</v>
+      </c>
+      <c r="E66" s="35">
+        <v>1</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I66" s="35">
+        <v>805</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K66" s="61"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="60"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="23">
+        <v>64</v>
+      </c>
+      <c r="E67" s="35">
+        <v>1</v>
+      </c>
+      <c r="F67" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="G67" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="G52" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="35">
-        <v>805</v>
-      </c>
-      <c r="I52" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J52" s="56"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="53"/>
-    </row>
-    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="23">
-        <v>47</v>
-      </c>
-      <c r="D53" s="35">
-        <v>2</v>
-      </c>
-      <c r="E53" s="35" t="s">
+      <c r="I67" s="35">
+        <v>1206</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K67" s="59"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="60"/>
+      <c r="O67" s="60"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="23">
+        <v>65</v>
+      </c>
+      <c r="E68" s="35">
+        <v>1</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J68" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="K68" s="59"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="60"/>
+      <c r="O68" s="60"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="23">
+        <v>66</v>
+      </c>
+      <c r="E69" s="35">
+        <v>1</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69" s="59"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="60"/>
+    </row>
+    <row r="70" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="23">
+        <v>67</v>
+      </c>
+      <c r="E70" s="35">
+        <v>1</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="H70" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="I70" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="J70" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="G53" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H53" s="35">
-        <v>805</v>
-      </c>
-      <c r="I53" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J53" s="56"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="23">
-        <v>48</v>
-      </c>
-      <c r="D54" s="35">
+      <c r="K70" s="59"/>
+      <c r="L70" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="M70" s="60"/>
+      <c r="N70" s="60"/>
+      <c r="O70" s="60"/>
+    </row>
+    <row r="71" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="23">
+        <v>68</v>
+      </c>
+      <c r="E71" s="35">
         <v>1</v>
       </c>
-      <c r="E54" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H54" s="35">
-        <v>805</v>
-      </c>
-      <c r="I54" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J54" s="51"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="23">
-        <v>49</v>
-      </c>
-      <c r="D55" s="35">
+      <c r="F71" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I71" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="J71" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="K71" s="59"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="60"/>
+      <c r="N71" s="60"/>
+      <c r="O71" s="60"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="23">
+        <v>69</v>
+      </c>
+      <c r="E72" s="35">
         <v>1</v>
       </c>
-      <c r="E55" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H55" s="35">
-        <v>805</v>
-      </c>
-      <c r="I55" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J55" s="51"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="23">
-        <v>50</v>
-      </c>
-      <c r="D56" s="35">
-        <v>2</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="F56" s="35" t="s">
+      <c r="F72" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="G56" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" s="35">
-        <v>805</v>
-      </c>
-      <c r="I56" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="23">
-        <v>51</v>
-      </c>
-      <c r="D57" s="35">
+      <c r="G72" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H72" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="K72" s="59"/>
+      <c r="L72" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60"/>
+      <c r="O72" s="60"/>
+    </row>
+    <row r="73" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="23">
+        <v>70</v>
+      </c>
+      <c r="E73" s="35">
         <v>1</v>
       </c>
-      <c r="E57" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H57" s="35">
-        <v>805</v>
-      </c>
-      <c r="I57" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J57" s="61"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="23">
-        <v>52</v>
-      </c>
-      <c r="D58" s="35">
-        <v>2</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H58" s="35">
-        <v>805</v>
-      </c>
-      <c r="I58" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J58" s="61"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="62"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="62"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="23">
-        <v>53</v>
-      </c>
-      <c r="D59" s="35">
-        <v>1</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H59" s="35">
-        <v>805</v>
-      </c>
-      <c r="I59" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J59" s="61"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="23">
-        <v>54</v>
-      </c>
-      <c r="D60" s="35">
-        <v>1</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H60" s="35">
-        <v>805</v>
-      </c>
-      <c r="I60" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J60" s="63"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="23">
-        <v>55</v>
-      </c>
-      <c r="D61" s="35">
-        <v>1</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H61" s="35">
-        <v>805</v>
-      </c>
-      <c r="I61" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J61" s="63"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="23">
-        <v>56</v>
-      </c>
-      <c r="D62" s="35">
-        <v>2</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H62" s="35">
-        <v>805</v>
-      </c>
-      <c r="I62" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J62" s="63"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="23">
-        <v>57</v>
-      </c>
-      <c r="D63" s="35">
-        <v>1</v>
-      </c>
-      <c r="E63" s="35" t="s">
+      <c r="F73" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="F63" s="35" t="s">
+      <c r="G73" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="G63" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H63" s="35">
-        <v>805</v>
-      </c>
-      <c r="I63" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J63" s="63"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="23">
-        <v>58</v>
-      </c>
-      <c r="D64" s="35">
-        <v>1</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H64" s="35">
-        <v>805</v>
-      </c>
-      <c r="I64" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J64" s="63"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="23">
-        <v>59</v>
-      </c>
-      <c r="D65" s="35">
-        <v>1</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H65" s="35">
-        <v>805</v>
-      </c>
-      <c r="I65" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J65" s="63"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="23">
-        <v>60</v>
-      </c>
-      <c r="D66" s="35">
-        <v>1</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H66" s="35">
-        <v>805</v>
-      </c>
-      <c r="I66" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J66" s="63"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="62"/>
-      <c r="M66" s="62"/>
-      <c r="N66" s="62"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="23">
-        <v>61</v>
-      </c>
-      <c r="D67" s="35">
-        <v>1</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H67" s="35">
-        <v>805</v>
-      </c>
-      <c r="I67" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J67" s="63"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="23">
-        <v>62</v>
-      </c>
-      <c r="D68" s="35">
-        <v>1</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G68" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H68" s="35">
-        <v>805</v>
-      </c>
-      <c r="I68" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J68" s="63"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="62"/>
-      <c r="N68" s="62"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="23">
-        <v>63</v>
-      </c>
-      <c r="D69" s="35">
-        <v>1</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="F69" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="H69" s="35">
-        <v>805</v>
-      </c>
-      <c r="I69" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J69" s="63"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="23">
-        <v>64</v>
-      </c>
-      <c r="D70" s="35">
-        <v>1</v>
-      </c>
-      <c r="E70" s="35" t="s">
+      <c r="H73" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="I73" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="F70" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G70" s="35" t="s">
+      <c r="J73" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="H70" s="35">
-        <v>1206</v>
-      </c>
-      <c r="I70" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J70" s="61"/>
-      <c r="K70" s="64"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="62"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="28" t="s">
+      <c r="K73" s="63"/>
+      <c r="L73" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="51"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="C71" s="23">
-        <v>65</v>
-      </c>
-      <c r="D71" s="35">
-        <v>1</v>
-      </c>
-      <c r="E71" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G71" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H71" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="I71" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J71" s="61"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="62"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="23">
-        <v>66</v>
-      </c>
-      <c r="D72" s="35">
-        <v>1</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="61"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="62"/>
-      <c r="N72" s="62"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="23">
-        <v>67</v>
-      </c>
-      <c r="D73" s="35">
-        <v>1</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="G73" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="I73" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="J73" s="61"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="62"/>
-      <c r="N73" s="62"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
-        <v>88</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="23">
-        <v>68</v>
-      </c>
-      <c r="D74" s="35">
+      <c r="C74" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="23">
+        <v>71</v>
+      </c>
+      <c r="E74" s="35">
         <v>1</v>
       </c>
-      <c r="E74" s="35" t="s">
-        <v>115</v>
-      </c>
       <c r="F74" s="35" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="I74" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="J74" s="61"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J74" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="K74" s="59"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="60"/>
+      <c r="O74" s="60"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="23">
-        <v>69</v>
-      </c>
-      <c r="D75" s="35">
+      <c r="C75" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="23">
+        <v>72</v>
+      </c>
+      <c r="E75" s="35">
+        <v>2</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="H75" s="35">
+        <v>7414</v>
+      </c>
+      <c r="I75" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="J75" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K75" s="59"/>
+      <c r="L75" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="M75" s="60"/>
+      <c r="N75" s="60"/>
+      <c r="O75" s="60"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="23">
+        <v>73</v>
+      </c>
+      <c r="E76" s="35">
         <v>1</v>
       </c>
-      <c r="E75" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="F75" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="G75" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="H75" s="35" t="s">
+      <c r="F76" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I75" s="35" t="s">
+      <c r="H76" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="I76" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="J75" s="61"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
-    </row>
-    <row r="76" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="23">
-        <v>70</v>
-      </c>
-      <c r="D76" s="35">
+      <c r="J76" s="34"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="60"/>
+    </row>
+    <row r="77" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="23">
+        <v>74</v>
+      </c>
+      <c r="E77" s="35">
         <v>1</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="F77" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="H77" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="I77" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="G76" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="H76" s="35" t="s">
+      <c r="J77" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="I76" s="35" t="s">
+      <c r="K77" s="59"/>
+      <c r="L77" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="23">
+        <v>75</v>
+      </c>
+      <c r="E78" s="35">
+        <v>1</v>
+      </c>
+      <c r="F78" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="34"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="M78" s="60"/>
+      <c r="N78" s="60"/>
+      <c r="O78" s="60"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="23">
+        <v>76</v>
+      </c>
+      <c r="E79" s="35">
+        <v>1</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="J76" s="65"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="53"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" s="23">
-        <v>71</v>
-      </c>
-      <c r="D77" s="35">
+      <c r="H79" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="I79" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="J79" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="K79" s="59"/>
+      <c r="L79" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="M79" s="60"/>
+      <c r="N79" s="60"/>
+      <c r="O79" s="60"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="23">
+        <v>77</v>
+      </c>
+      <c r="E80" s="35">
         <v>1</v>
       </c>
-      <c r="E77" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="H77" s="35" t="s">
+      <c r="F80" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I80" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="J80" s="34"/>
+      <c r="K80" s="59"/>
+      <c r="L80" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="M80" s="60"/>
+      <c r="N80" s="60"/>
+      <c r="O80" s="60"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="23">
+        <v>78</v>
+      </c>
+      <c r="E81" s="35">
+        <v>1</v>
+      </c>
+      <c r="F81" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="I77" s="35" t="s">
+      <c r="H81" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="I81" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="J77" s="61"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="62"/>
-      <c r="N77" s="62"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="23">
-        <v>72</v>
-      </c>
-      <c r="D78" s="35">
-        <v>2</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F78" s="35" t="s">
+      <c r="J81" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="G78" s="35">
-        <v>7414</v>
-      </c>
-      <c r="H78" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="I78" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="J78" s="61"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="62"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="23">
-        <v>73</v>
-      </c>
-      <c r="D79" s="35">
-        <v>1</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F79" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="G79" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="H79" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="I79" s="35"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="62"/>
-      <c r="M79" s="62"/>
-      <c r="N79" s="62"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="23">
-        <v>74</v>
-      </c>
-      <c r="D80" s="35">
-        <v>1</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F80" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="H80" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="I80" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="J80" s="61"/>
-      <c r="K80" s="62"/>
-      <c r="L80" s="62"/>
-      <c r="M80" s="62"/>
-      <c r="N80" s="62"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" s="23">
-        <v>75</v>
-      </c>
-      <c r="D81" s="35">
-        <v>1</v>
-      </c>
-      <c r="E81" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="35"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="62"/>
-      <c r="L81" s="62"/>
-      <c r="M81" s="62"/>
-      <c r="N81" s="62"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" s="23">
-        <v>76</v>
-      </c>
-      <c r="D82" s="35">
-        <v>1</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="H82" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="I82" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="J82" s="61"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" s="23">
-        <v>77</v>
-      </c>
-      <c r="D83" s="35">
-        <v>1</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F83" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H83" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="I83" s="35"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="23">
-        <v>78</v>
-      </c>
-      <c r="D84" s="35">
-        <v>1</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="G84" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="H84" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I84" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="J84" s="61"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="M81" s="60"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="48" type="noConversion"/>
-  <conditionalFormatting sqref="A32 B70 B72:B73">
-    <cfRule type="containsText" dxfId="13" priority="24" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",A32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A74">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",A70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",A70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B48">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="P">
+  <conditionalFormatting sqref="A7:A35 C38:C70 A37:A73 A75:A81">
+    <cfRule type="containsText" dxfId="135" priority="154" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A71">
+    <cfRule type="containsText" dxfId="134" priority="151" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="152" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A35 C38:C69 A37:A45">
+    <cfRule type="containsText" dxfId="132" priority="131" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B84">
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",A7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B10">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",A10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B18">
+  <conditionalFormatting sqref="A9">
+    <cfRule type="containsText" dxfId="131" priority="136" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="containsText" dxfId="130" priority="138" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A35 A37:A73 A75:A81">
+    <cfRule type="containsText" dxfId="129" priority="141" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="containsText" dxfId="128" priority="140" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C20">
+    <cfRule type="containsText" dxfId="122" priority="126" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C20">
+    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C20">
+    <cfRule type="containsText" dxfId="120" priority="125" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="119" priority="120" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="117" priority="118" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="116" priority="116" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="115" priority="117" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="containsText" dxfId="113" priority="114" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="110" priority="111" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="108" priority="109" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="105" priority="106" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="containsText" dxfId="104" priority="105" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="containsText" dxfId="103" priority="104" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="containsText" dxfId="100" priority="101" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsText" dxfId="95" priority="96" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="containsText" dxfId="92" priority="93" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72:C75 C77">
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72:C75 C77">
+    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:C70">
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:C33">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:C33">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:C33">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B20">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B20">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B26">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B26">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B35">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B35">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B69">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B69">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",A74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:B76">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:B76">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",A18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:B84">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",A33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B48">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",A48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70 B72:B73">
-    <cfRule type="containsText" dxfId="3" priority="23" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",B70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B74">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",B71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",B79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",B81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5332,35 +7310,35 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B4" s="43">
         <v>45020</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>257</v>
+        <v>243</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="50"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="45"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
